--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/o_dung_quoc.p/Work/excel-file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365590F3-1446-9D44-86EC-7C218BF52578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DECE77-CCCF-4E27-B985-11375ED37D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="27360" windowHeight="16940" xr2:uid="{7C95D35A-A977-6441-9AE6-446B05D34FEB}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{7C95D35A-A977-6441-9AE6-446B05D34FEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,36 +27,12 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
@@ -91,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,6 +105,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -156,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -164,6 +148,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -233,65 +218,57 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1023257</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1055914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647848</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2117299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA955903-154E-40F9-8AFC-B804034ED46A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1023257" y="1600200"/>
+          <a:ext cx="5649834" cy="1061385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
 </file>
 
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
@@ -619,17 +596,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CD9EE6-324C-0244-90B9-856C409BCB55}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="69.1640625" customWidth="1"/>
+    <col min="1" max="1" width="69.1875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="27" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -643,7 +618,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.9">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -658,10 +633,8 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="199" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
+    <row r="3" spans="1:5" ht="199" customHeight="1">
+      <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -669,14 +642,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.9">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.9">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -687,6 +660,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/o_dung_quoc.p/Work/excel-file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DECE77-CCCF-4E27-B985-11375ED37D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8102FD1E-CB0C-AE48-B05F-E1140CA287A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{7C95D35A-A977-6441-9AE6-446B05D34FEB}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" xr2:uid="{7C95D35A-A977-6441-9AE6-446B05D34FEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>ABC</t>
   </si>
@@ -51,9 +51,6 @@
     <t>d</t>
   </si>
   <si>
-    <t>đì đót</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -61,13 +58,103 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>di dot</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>EEE</t>
+  </si>
+  <si>
+    <t>FFF</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>HHH</t>
+  </si>
+  <si>
+    <t>YYY</t>
+  </si>
+  <si>
+    <t>ZZZ</t>
+  </si>
+  <si>
+    <t>ZKKK</t>
+  </si>
+  <si>
+    <t>ASW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,8 +197,21 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="0.59999389629810485"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8" tint="0.59999389629810485"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -128,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,19 +236,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -171,22 +290,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>55306</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>58525</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF3AB50-57E3-7AAE-81ED-830E27A4D6DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F84384-BB94-110F-C778-8FAEF3358392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -195,7 +314,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -208,58 +327,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8572500" y="63500"/>
-          <a:ext cx="7772400" cy="8351625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1023257</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1055914</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647848</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2117299</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA955903-154E-40F9-8AFC-B804034ED46A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1023257" y="1600200"/>
-          <a:ext cx="5649834" cy="1061385"/>
+          <a:off x="8653206" y="546100"/>
+          <a:ext cx="7717094" cy="10172700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -269,12 +338,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -594,62 +657,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CD9EE6-324C-0244-90B9-856C409BCB55}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="69.1875" customWidth="1"/>
+    <col min="1" max="1" width="69" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:16" ht="27" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.9">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" ht="199" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="199" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.9">
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15.9">
+    <row r="5" spans="1:16">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -658,6 +759,191 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
